--- a/Urquina/LAB-4_T_EQU-6 Ecuaciones.xlsx
+++ b/Urquina/LAB-4_T_EQU-6 Ecuaciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamon\OneDrive - Instituto Tecnológico Metropolitano\Documentos Post virus\ITM 2020-1\Lab de señales\Cuarta entrega\Urquina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C138137-F46C-4536-801A-805D47C15E8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD18623-F7F8-40A9-84E6-435D795F7104}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-7950" yWindow="3975" windowWidth="15300" windowHeight="8325" activeTab="2" xr2:uid="{5201393B-81EE-4F35-AD40-E21D47ABFD27}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" activeTab="1" xr2:uid="{5201393B-81EE-4F35-AD40-E21D47ABFD27}"/>
   </bookViews>
   <sheets>
     <sheet name="LDR Sensor " sheetId="3" r:id="rId1"/>
@@ -1795,34 +1795,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9999999999999992E-2</c:v>
+                  <c:v>0.92499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19999999999999998</c:v>
+                  <c:v>1.8499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3</c:v>
+                  <c:v>2.7749999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39999999999999997</c:v>
+                  <c:v>3.6999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>4.625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                  <c:v>5.55</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.70000000000000007</c:v>
+                  <c:v>6.4749999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79999999999999993</c:v>
+                  <c:v>7.3999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.9</c:v>
+                  <c:v>8.3250000000000011</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>9.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4932,8 +4932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{290E602F-2363-4A3F-82F4-B0D8CC6246E6}">
   <dimension ref="B2:E26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4980,6 +4980,7 @@
         <v>0.1</v>
       </c>
       <c r="D4" s="1">
+        <f>C4/0.02</f>
         <v>5</v>
       </c>
       <c r="E4" s="1">
@@ -4994,6 +4995,7 @@
         <v>0.2</v>
       </c>
       <c r="D5" s="1">
+        <f t="shared" ref="D5:D13" si="0">C5/0.02</f>
         <v>10</v>
       </c>
       <c r="E5" s="1">
@@ -5008,6 +5010,7 @@
         <v>0.3</v>
       </c>
       <c r="D6" s="1">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="E6" s="1">
@@ -5022,6 +5025,7 @@
         <v>0.4</v>
       </c>
       <c r="D7" s="1">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E7" s="1">
@@ -5036,6 +5040,7 @@
         <v>0.5</v>
       </c>
       <c r="D8" s="1">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="E8" s="1">
@@ -5050,6 +5055,7 @@
         <v>0.6</v>
       </c>
       <c r="D9" s="1">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E9" s="1">
@@ -5064,6 +5070,7 @@
         <v>0.7</v>
       </c>
       <c r="D10" s="1">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E10" s="1">
@@ -5078,6 +5085,7 @@
         <v>0.8</v>
       </c>
       <c r="D11" s="1">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="E11" s="1">
@@ -5092,6 +5100,7 @@
         <v>0.9</v>
       </c>
       <c r="D12" s="1">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="E12" s="1">
@@ -5106,6 +5115,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="1">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E13" s="1">
@@ -5141,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <f>C16/0.185</f>
+        <f>C16/0.02</f>
         <v>0</v>
       </c>
       <c r="E16" s="1"/>
@@ -5151,12 +5161,12 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" ref="C17:C26" si="0">B17*0.185</f>
+        <f t="shared" ref="C17:C26" si="1">B17*0.185</f>
         <v>1.8499999999999999E-2</v>
       </c>
       <c r="D17" s="1">
-        <f>C17/0.185</f>
-        <v>9.9999999999999992E-2</v>
+        <f t="shared" ref="D17:D26" si="2">C17/0.02</f>
+        <v>0.92499999999999993</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -5165,12 +5175,12 @@
         <v>0.2</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" ref="D18:D26" si="1">C18/0.185</f>
-        <v>0.19999999999999998</v>
+        <f t="shared" si="2"/>
+        <v>1.8499999999999999</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -5179,12 +5189,12 @@
         <v>0.3</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5500000000000001E-2</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
+        <f t="shared" si="2"/>
+        <v>2.7749999999999999</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -5193,12 +5203,12 @@
         <v>0.4</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="1"/>
-        <v>0.39999999999999997</v>
+        <f t="shared" si="2"/>
+        <v>3.6999999999999997</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -5207,12 +5217,12 @@
         <v>0.5</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.2499999999999999E-2</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f t="shared" si="2"/>
+        <v>4.625</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -5221,12 +5231,12 @@
         <v>0.6</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.111</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
+        <f t="shared" si="2"/>
+        <v>5.55</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -5235,12 +5245,12 @@
         <v>0.7</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1295</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="1"/>
-        <v>0.70000000000000007</v>
+        <f t="shared" si="2"/>
+        <v>6.4749999999999996</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -5249,12 +5259,12 @@
         <v>0.8</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.14799999999999999</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="1"/>
-        <v>0.79999999999999993</v>
+        <f t="shared" si="2"/>
+        <v>7.3999999999999995</v>
       </c>
       <c r="E24" s="1"/>
     </row>
@@ -5263,12 +5273,12 @@
         <v>0.9</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16650000000000001</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
+        <f t="shared" si="2"/>
+        <v>8.3250000000000011</v>
       </c>
       <c r="E25" s="1"/>
     </row>
@@ -5277,12 +5287,12 @@
         <v>1</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.185</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>9.25</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -5296,7 +5306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4324FF87-317C-47E2-9663-70BC24623716}">
   <dimension ref="B2:C13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
